--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H2">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>649.656250165716</v>
+        <v>64.557899719425</v>
       </c>
       <c r="R2">
-        <v>5846.906251491444</v>
+        <v>581.021097474825</v>
       </c>
       <c r="S2">
-        <v>0.1340630353364149</v>
+        <v>0.02244495085852197</v>
       </c>
       <c r="T2">
-        <v>0.1340630353364149</v>
+        <v>0.02244495085852197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H3">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>1595.916701819489</v>
+        <v>962.6949326824199</v>
       </c>
       <c r="R3">
-        <v>14363.2503163754</v>
+        <v>8664.254394141781</v>
       </c>
       <c r="S3">
-        <v>0.3293333007039109</v>
+        <v>0.3347017258881403</v>
       </c>
       <c r="T3">
-        <v>0.3293333007039109</v>
+        <v>0.3347017258881403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H4">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>818.1884484523409</v>
+        <v>365.4317348466749</v>
       </c>
       <c r="R4">
-        <v>7363.696036071069</v>
+        <v>3288.885613620075</v>
       </c>
       <c r="S4">
-        <v>0.1688413323949903</v>
+        <v>0.1270502504949073</v>
       </c>
       <c r="T4">
-        <v>0.1688413323949903</v>
+        <v>0.1270502504949073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>319.869403351932</v>
+        <v>52.69385913247167</v>
       </c>
       <c r="R5">
-        <v>2878.824630167388</v>
+        <v>474.244732192245</v>
       </c>
       <c r="S5">
-        <v>0.06600823606895088</v>
+        <v>0.01832016041281369</v>
       </c>
       <c r="T5">
-        <v>0.06600823606895088</v>
+        <v>0.01832016041281369</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
-        <v>785.7769752544787</v>
+        <v>785.7769752544788</v>
       </c>
       <c r="R6">
-        <v>7071.992777290307</v>
+        <v>7071.992777290308</v>
       </c>
       <c r="S6">
-        <v>0.1621529022051447</v>
+        <v>0.2731923695162911</v>
       </c>
       <c r="T6">
-        <v>0.1621529022051447</v>
+        <v>0.273192369516291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>402.8491233158069</v>
+        <v>298.275012697655</v>
       </c>
       <c r="R7">
-        <v>3625.642109842262</v>
+        <v>2684.475114278895</v>
       </c>
       <c r="S7">
-        <v>0.08313192744709913</v>
+        <v>0.1037017627806977</v>
       </c>
       <c r="T7">
-        <v>0.08313192744709913</v>
+        <v>0.1037017627806977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H8">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>58.02503287772</v>
+        <v>16.07808296929389</v>
       </c>
       <c r="R8">
-        <v>522.22529589948</v>
+        <v>144.702746723645</v>
       </c>
       <c r="S8">
-        <v>0.0119740432437895</v>
+        <v>0.005589893471030265</v>
       </c>
       <c r="T8">
-        <v>0.0119740432437895</v>
+        <v>0.005589893471030265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H9">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>142.5417196702978</v>
+        <v>239.7582490920076</v>
       </c>
       <c r="R9">
-        <v>1282.87547703268</v>
+        <v>2157.824241828068</v>
       </c>
       <c r="S9">
-        <v>0.02941490302940664</v>
+        <v>0.08335714362120379</v>
       </c>
       <c r="T9">
-        <v>0.02941490302940664</v>
+        <v>0.08335714362120378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H10">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>73.07774166647</v>
+        <v>91.01042286092166</v>
       </c>
       <c r="R10">
-        <v>657.6996749982301</v>
+        <v>819.0938057482949</v>
       </c>
       <c r="S10">
-        <v>0.01508031957029324</v>
+        <v>0.03164174295639378</v>
       </c>
       <c r="T10">
-        <v>0.01508031957029324</v>
+        <v>0.03164174295639378</v>
       </c>
     </row>
   </sheetData>
